--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388E1B84-3306-4889-9D49-70EBB04BA588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874CA906-0492-45FC-9B12-DC4F1CC5D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D555C4E3-048C-42C7-9EA1-F19C106AB869}"/>
   </bookViews>
   <sheets>
-    <sheet name="g12.2" sheetId="3" r:id="rId1"/>
+    <sheet name="g12.2" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,24 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>Exportação de bens - Sergipe - US$ (mil)</t>
+    <t>% exportações de Sergipe no Brasil</t>
   </si>
   <si>
-    <t>Exportação de bens - Nordeste - US$ (mil)</t>
-  </si>
-  <si>
-    <t>Exportação de bens - Brasil - US$ (mil)</t>
+    <t>% exportações de Sergipe no Nordeste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,221 +388,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCABE5A0-2667-4A2A-ADE5-FDDA53215D60}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B2C39-FF07-427E-A757-57781BBE4696}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2">
-        <v>200434134.82600001</v>
-      </c>
-      <c r="C2">
-        <v>15854117</v>
-      </c>
-      <c r="D2">
-        <v>78188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>3.9009323470713314E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.49317158439035108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3">
-        <v>253666309.507</v>
-      </c>
-      <c r="C3">
-        <v>18806730</v>
-      </c>
-      <c r="D3">
-        <v>137081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>5.403989211906645E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.72889332701644571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4">
-        <v>239952538.15799999</v>
-      </c>
-      <c r="C4">
-        <v>18397307</v>
-      </c>
-      <c r="D4">
-        <v>149048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>6.2115617173366729E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.81016205252214357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5">
-        <v>232544255.60600001</v>
-      </c>
-      <c r="C5">
-        <v>15715371</v>
-      </c>
-      <c r="D5">
-        <v>84570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3.6367271158607779E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.53813556167398147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6">
-        <v>220923236.838</v>
-      </c>
-      <c r="C6">
-        <v>15895307</v>
-      </c>
-      <c r="D6">
-        <v>77807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3.5219020467754061E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.48949667974327266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7">
-        <v>186782355.06299999</v>
-      </c>
-      <c r="C7">
-        <v>14594259</v>
-      </c>
-      <c r="D7">
-        <v>95641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5.120451552703742E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.65533303198195947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <v>179526129.21399999</v>
-      </c>
-      <c r="C8">
-        <v>12774640</v>
-      </c>
-      <c r="D8">
-        <v>113375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6.3152367009959839E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.88750054796064703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <v>214988108.35299999</v>
-      </c>
-      <c r="C9">
-        <v>16728753</v>
-      </c>
-      <c r="D9">
-        <v>90888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4.2275826647475E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.54330409445342398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10">
-        <v>231889523.39899999</v>
-      </c>
-      <c r="C10">
-        <v>18719768</v>
-      </c>
-      <c r="D10">
-        <v>73990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>3.190743545265274E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3952506249009069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11">
-        <v>221126807.64700001</v>
-      </c>
-      <c r="C11">
-        <v>16881282</v>
-      </c>
-      <c r="D11">
-        <v>50561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2.2865160736510071E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.29950924343305207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12">
-        <v>209180241.655</v>
-      </c>
-      <c r="C12">
-        <v>16149071</v>
-      </c>
-      <c r="D12">
-        <v>39271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>1.8773761656117348E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.24317807507317296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13">
-        <v>280814577.45999998</v>
-      </c>
-      <c r="C13">
-        <v>21226305</v>
-      </c>
-      <c r="D13">
-        <v>92253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>3.2851927002664517E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.43461638754366338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14">
-        <v>334136038.22000003</v>
-      </c>
-      <c r="C14">
-        <v>27735496</v>
-      </c>
-      <c r="D14">
-        <v>118257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>3.5391872313437163E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.42637420293475192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>339672777.81900001</v>
-      </c>
-      <c r="C15">
-        <v>24840314</v>
-      </c>
-      <c r="D15">
-        <v>337126</v>
+      <c r="B15" s="1">
+        <v>9.9250226104266426E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.357172860214247</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874CA906-0492-45FC-9B12-DC4F1CC5D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918EDB5-41D8-42AB-953E-464FB9887AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D555C4E3-048C-42C7-9EA1-F19C106AB869}"/>
   </bookViews>
@@ -25,24 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Ano</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>% exportações de Sergipe no Brasil</t>
   </si>
   <si>
     <t>% exportações de Sergipe no Nordeste</t>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>% importações de Sergipe no Brasil</t>
+  </si>
+  <si>
+    <t>% importações de Sergipe no Nordeste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,182 +392,2890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B2C39-FF07-427E-A757-57781BBE4696}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.9009323470713314E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.49317158439035108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5.403989211906645E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.72889332701644571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6.2115617173366729E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.81016205252214357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.6367271158607779E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.53813556167398147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.5219020467754061E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.48949667974327266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.120451552703742E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.65533303198195947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.3152367009959839E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.88750054796064703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.2275826647475E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.54330409445342398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3.190743545265274E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.3952506249009069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.2865160736510071E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.29950924343305207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.8773761656117348E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.24317807507317296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.2851927002664517E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.43461638754366338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.5391872313437163E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.42637420293475192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9.9250226104266426E-2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.357172860214247</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B2">
+        <v>0.3570178868995495</v>
+      </c>
+      <c r="C2">
+        <v>3.0994805270945154</v>
+      </c>
+      <c r="D2">
+        <v>3.4650482623670452E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.38469209290908535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>40210</v>
+      </c>
+      <c r="B3">
+        <v>0.33089720437483916</v>
+      </c>
+      <c r="C3">
+        <v>3.4278397533933145</v>
+      </c>
+      <c r="D3">
+        <v>5.8291195010789283E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.60043568833126171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B4">
+        <v>0.25678579952088487</v>
+      </c>
+      <c r="C4">
+        <v>2.5592329043140229</v>
+      </c>
+      <c r="D4">
+        <v>3.854644395404884E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.39642901098781541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B5">
+        <v>0.26661025349634165</v>
+      </c>
+      <c r="C5">
+        <v>3.1598250479046706</v>
+      </c>
+      <c r="D5">
+        <v>2.4933767987715343E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.22385905494447561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B6">
+        <v>0.22853545106251497</v>
+      </c>
+      <c r="C6">
+        <v>3.2670741287518577</v>
+      </c>
+      <c r="D6">
+        <v>2.1484619877902365E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.24223618106250666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B7">
+        <v>0.23676723511222614</v>
+      </c>
+      <c r="C7">
+        <v>3.4983596830744625</v>
+      </c>
+      <c r="D7">
+        <v>2.6826260384952786E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.31704239422816599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B8">
+        <v>0.22882098588141733</v>
+      </c>
+      <c r="C8">
+        <v>3.4454998920079936</v>
+      </c>
+      <c r="D8">
+        <v>3.8825163641024556E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.4076504597011415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B9">
+        <v>0.2106668973420523</v>
+      </c>
+      <c r="C9">
+        <v>3.0625993765766615</v>
+      </c>
+      <c r="D9">
+        <v>4.5642465515910509E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.49356264350540124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B10">
+        <v>0.21525201851193815</v>
+      </c>
+      <c r="C10">
+        <v>2.9520473063718562</v>
+      </c>
+      <c r="D10">
+        <v>4.1764322800615247E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.45144867043156606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B11">
+        <v>0.2207654384317729</v>
+      </c>
+      <c r="C11">
+        <v>2.9470003278330235</v>
+      </c>
+      <c r="D11">
+        <v>6.5231330996974854E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.69862835622838504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40483</v>
+      </c>
+      <c r="B12">
+        <v>0.22962885383872936</v>
+      </c>
+      <c r="C12">
+        <v>2.9969425751956233</v>
+      </c>
+      <c r="D12">
+        <v>4.0292410667927409E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.36710864729779097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B13">
+        <v>0.19471106557262413</v>
+      </c>
+      <c r="C13">
+        <v>2.5824279144183913</v>
+      </c>
+      <c r="D13">
+        <v>7.2646117394490325E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.71935219766613256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B14">
+        <v>0.26779106788095197</v>
+      </c>
+      <c r="C14">
+        <v>3.2907755367071143</v>
+      </c>
+      <c r="D14">
+        <v>4.5581582215119085E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.55021287758025783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B15">
+        <v>0.24344509643635845</v>
+      </c>
+      <c r="C15">
+        <v>3.3149645219138968</v>
+      </c>
+      <c r="D15">
+        <v>7.8185036125112073E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.92753079349275869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B16">
+        <v>0.21116927866351687</v>
+      </c>
+      <c r="C16">
+        <v>2.7826932012725427</v>
+      </c>
+      <c r="D16">
+        <v>5.7975484209897565E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.57248058523676582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B17">
+        <v>0.20223181810755447</v>
+      </c>
+      <c r="C17">
+        <v>2.7054991530750301</v>
+      </c>
+      <c r="D17">
+        <v>5.6892747129040383E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.53592761354015861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B18">
+        <v>0.1756812249612861</v>
+      </c>
+      <c r="C18">
+        <v>2.7390653606305833</v>
+      </c>
+      <c r="D18">
+        <v>3.2131303210218648E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.32264713463921607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B19">
+        <v>0.17197363615762762</v>
+      </c>
+      <c r="C19">
+        <v>2.6166278517996511</v>
+      </c>
+      <c r="D19">
+        <v>2.4067261598968298E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.2288462990029575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B20">
+        <v>0.18331866459630677</v>
+      </c>
+      <c r="C20">
+        <v>2.6260030074101968</v>
+      </c>
+      <c r="D20">
+        <v>5.8736217386386666E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.58801377736305593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B21">
+        <v>0.15611470674886796</v>
+      </c>
+      <c r="C21">
+        <v>2.255302500831434</v>
+      </c>
+      <c r="D21">
+        <v>7.5151447165956689E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.6565374252857602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B22">
+        <v>0.17549015281781738</v>
+      </c>
+      <c r="C22">
+        <v>2.4343587956110277</v>
+      </c>
+      <c r="D22">
+        <v>4.7693265603095905E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.41718050990448963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B23">
+        <v>0.1850540990144314</v>
+      </c>
+      <c r="C23">
+        <v>2.3550203064751662</v>
+      </c>
+      <c r="D23">
+        <v>7.4718252767650761E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.64471200780995774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B24">
+        <v>0.18807379921354625</v>
+      </c>
+      <c r="C24">
+        <v>2.2279904941690334</v>
+      </c>
+      <c r="D24">
+        <v>0.10898064393372725</v>
+      </c>
+      <c r="E24">
+        <v>0.91252700631206352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B25">
+        <v>0.18475597583136549</v>
+      </c>
+      <c r="C25">
+        <v>2.3361580435662215</v>
+      </c>
+      <c r="D25">
+        <v>5.4920306531852897E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.47693475261742807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B26">
+        <v>0.25525538902857586</v>
+      </c>
+      <c r="C26">
+        <v>2.786796352484199</v>
+      </c>
+      <c r="D26">
+        <v>4.9952439517325087E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.45089254548963725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B27">
+        <v>0.22793536368752379</v>
+      </c>
+      <c r="C27">
+        <v>2.0696962895107749</v>
+      </c>
+      <c r="D27">
+        <v>0.10606676590714118</v>
+      </c>
+      <c r="E27">
+        <v>0.90620474430336617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B28">
+        <v>0.19655472643427255</v>
+      </c>
+      <c r="C28">
+        <v>2.9128312031061481</v>
+      </c>
+      <c r="D28">
+        <v>5.423421686872866E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.42852973449174475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B29">
+        <v>0.2100482778443655</v>
+      </c>
+      <c r="C29">
+        <v>2.8876716844070662</v>
+      </c>
+      <c r="D29">
+        <v>0.11563474734042553</v>
+      </c>
+      <c r="E29">
+        <v>0.96020437377496859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B30">
+        <v>0.17692884089070432</v>
+      </c>
+      <c r="C30">
+        <v>2.7596903604547065</v>
+      </c>
+      <c r="D30">
+        <v>3.7446943348651396E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.35851470069696084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B31">
+        <v>0.21260386218076444</v>
+      </c>
+      <c r="C31">
+        <v>2.9772340675451687</v>
+      </c>
+      <c r="D31">
+        <v>4.4687432676597562E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.4134823545242628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B32">
+        <v>0.19593910867653552</v>
+      </c>
+      <c r="C32">
+        <v>2.5676980325625429</v>
+      </c>
+      <c r="D32">
+        <v>4.5830204331465667E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.49093739640354095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B33">
+        <v>0.18428621024849365</v>
+      </c>
+      <c r="C33">
+        <v>2.8197485252239334</v>
+      </c>
+      <c r="D33">
+        <v>6.3766730743613845E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.67632526276038996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B34">
+        <v>0.20618649708641271</v>
+      </c>
+      <c r="C34">
+        <v>2.7298132917291027</v>
+      </c>
+      <c r="D34">
+        <v>8.3302183649104106E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.88722529941886674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B35">
+        <v>0.18944255860481604</v>
+      </c>
+      <c r="C35">
+        <v>2.3359852794866875</v>
+      </c>
+      <c r="D35">
+        <v>7.0063625328572479E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.48539679658509077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B36">
+        <v>0.20154453534110436</v>
+      </c>
+      <c r="C36">
+        <v>3.0093272057373928</v>
+      </c>
+      <c r="D36">
+        <v>6.1020277803752035E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.37791211216200704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B37">
+        <v>0.20940954724293967</v>
+      </c>
+      <c r="C37">
+        <v>2.6433395137726809</v>
+      </c>
+      <c r="D37">
+        <v>7.0039803944347806E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.63910135968672099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B38">
+        <v>0.25879378931458724</v>
+      </c>
+      <c r="C38">
+        <v>3.1944566985686667</v>
+      </c>
+      <c r="D38">
+        <v>3.7143457712632014E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.2365007503316798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B39">
+        <v>0.26630535444185882</v>
+      </c>
+      <c r="C39">
+        <v>3.6018391999323338</v>
+      </c>
+      <c r="D39">
+        <v>3.9713695819723109E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.32131857075285059</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B40">
+        <v>0.21438275822903591</v>
+      </c>
+      <c r="C40">
+        <v>3.6775330082921101</v>
+      </c>
+      <c r="D40">
+        <v>5.3449103158516843E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.40292838189643604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B41">
+        <v>0.20084865865229082</v>
+      </c>
+      <c r="C41">
+        <v>2.5894653550631825</v>
+      </c>
+      <c r="D41">
+        <v>3.3732816642892349E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.40733186252063991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B42">
+        <v>0.19005274201569841</v>
+      </c>
+      <c r="C42">
+        <v>3.0152228875776022</v>
+      </c>
+      <c r="D42">
+        <v>2.9300984843668863E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.24573944098235609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B43">
+        <v>0.19649724899021434</v>
+      </c>
+      <c r="C43">
+        <v>3.5582560714365474</v>
+      </c>
+      <c r="D43">
+        <v>3.2877274660309645E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.31046617751969807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B44">
+        <v>0.19963267119438582</v>
+      </c>
+      <c r="C44">
+        <v>2.9500023838546863</v>
+      </c>
+      <c r="D44">
+        <v>3.4533515209151461E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.39744690629384161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B45">
+        <v>0.19418695479178402</v>
+      </c>
+      <c r="C45">
+        <v>3.617666371058669</v>
+      </c>
+      <c r="D45">
+        <v>2.6427579637387334E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.26099733515651102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B46">
+        <v>0.19950413860536759</v>
+      </c>
+      <c r="C46">
+        <v>2.6938661631645369</v>
+      </c>
+      <c r="D46">
+        <v>3.0826299914327809E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.26725339013341698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B47">
+        <v>0.18248311563506453</v>
+      </c>
+      <c r="C47">
+        <v>3.2566743482418601</v>
+      </c>
+      <c r="D47">
+        <v>2.2325322088492094E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.18718839627345646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B48">
+        <v>0.19983062704605326</v>
+      </c>
+      <c r="C48">
+        <v>3.319974864039847</v>
+      </c>
+      <c r="D48">
+        <v>3.9717117665793125E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.36181382398218298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B49">
+        <v>0.20007940730782722</v>
+      </c>
+      <c r="C49">
+        <v>2.9794071546156857</v>
+      </c>
+      <c r="D49">
+        <v>4.5639746619283501E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.34386655072382422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B50">
+        <v>0.26087272318744703</v>
+      </c>
+      <c r="C50">
+        <v>3.658980230610656</v>
+      </c>
+      <c r="D50">
+        <v>2.901411709138689E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.22598258286322287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B51">
+        <v>0.26304699838445411</v>
+      </c>
+      <c r="C51">
+        <v>3.6677665888300832</v>
+      </c>
+      <c r="D51">
+        <v>3.3482372886541698E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.27267809385966013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B52">
+        <v>0.23783966642762977</v>
+      </c>
+      <c r="C52">
+        <v>4.0860781919699285</v>
+      </c>
+      <c r="D52">
+        <v>4.7837407310270086E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.38461713443401591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B53">
+        <v>0.2125510861406528</v>
+      </c>
+      <c r="C53">
+        <v>3.2867791612057671</v>
+      </c>
+      <c r="D53">
+        <v>2.5408780638774241E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.24446655716394922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B54">
+        <v>0.20214960970355131</v>
+      </c>
+      <c r="C54">
+        <v>2.7416668362700989</v>
+      </c>
+      <c r="D54">
+        <v>4.0797602989128663E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.30707481019391653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B55">
+        <v>0.20511788022302518</v>
+      </c>
+      <c r="C55">
+        <v>2.9212586206173432</v>
+      </c>
+      <c r="D55">
+        <v>3.5914618699984462E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.3180953296035382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B56">
+        <v>0.18233518065680437</v>
+      </c>
+      <c r="C56">
+        <v>2.739698208036518</v>
+      </c>
+      <c r="D56">
+        <v>3.3263742657470147E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.22068045592582192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B57">
+        <v>0.20541953118410028</v>
+      </c>
+      <c r="C57">
+        <v>3.0337208965177305</v>
+      </c>
+      <c r="D57">
+        <v>3.0122221631811667E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.28894799773571184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B58">
+        <v>0.21436442749235446</v>
+      </c>
+      <c r="C58">
+        <v>2.5648609819994928</v>
+      </c>
+      <c r="D58">
+        <v>2.6417454150996143E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.22768108646880969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B59">
+        <v>0.22994964607360247</v>
+      </c>
+      <c r="C59">
+        <v>3.0328795314460542</v>
+      </c>
+      <c r="D59">
+        <v>3.8243273041836827E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.33137677063792448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B60">
+        <v>0.26980809096942071</v>
+      </c>
+      <c r="C60">
+        <v>3.5939513586136931</v>
+      </c>
+      <c r="D60">
+        <v>3.4783254729436774E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.24875894791695236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B61">
+        <v>0.24193841215079329</v>
+      </c>
+      <c r="C61">
+        <v>3.2557342233715705</v>
+      </c>
+      <c r="D61">
+        <v>3.0814101303478364E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.21676525324895402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B62">
+        <v>0.30877896617427047</v>
+      </c>
+      <c r="C62">
+        <v>4.1565075243621514</v>
+      </c>
+      <c r="D62">
+        <v>2.7230659026905687E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.15272901014041676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B63">
+        <v>0.34998665586569055</v>
+      </c>
+      <c r="C63">
+        <v>4.6649857506858314</v>
+      </c>
+      <c r="D63">
+        <v>3.3888408949899244E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.26359767580986782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B64">
+        <v>0.24897224996113282</v>
+      </c>
+      <c r="C64">
+        <v>3.9333139460403634</v>
+      </c>
+      <c r="D64">
+        <v>4.7622960542404003E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.35449360089043458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B65">
+        <v>0.27961953584221627</v>
+      </c>
+      <c r="C65">
+        <v>3.8512526291809581</v>
+      </c>
+      <c r="D65">
+        <v>3.4305794336059521E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.25873716263653729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B66">
+        <v>0.25262899509928571</v>
+      </c>
+      <c r="C66">
+        <v>3.4613008081983323</v>
+      </c>
+      <c r="D66">
+        <v>3.1635051133492686E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.25668742031994662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B67">
+        <v>0.21526657986134456</v>
+      </c>
+      <c r="C67">
+        <v>3.2349108857099447</v>
+      </c>
+      <c r="D67">
+        <v>3.9696708730383307E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.3542614207384624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B68">
+        <v>0.22857982455275339</v>
+      </c>
+      <c r="C68">
+        <v>2.8010352662464162</v>
+      </c>
+      <c r="D68">
+        <v>4.3575520881456747E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.33901153907208736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B69">
+        <v>0.27484912661203786</v>
+      </c>
+      <c r="C69">
+        <v>3.5008649127375189</v>
+      </c>
+      <c r="D69">
+        <v>9.4043127031888121E-2</v>
+      </c>
+      <c r="E69">
+        <v>1.0951184780183194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B70">
+        <v>0.26390254659703932</v>
+      </c>
+      <c r="C70">
+        <v>2.9239838934498277</v>
+      </c>
+      <c r="D70">
+        <v>9.8932769470593138E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.90072257785414178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B71">
+        <v>0.26585626566915627</v>
+      </c>
+      <c r="C71">
+        <v>3.2214435767334937</v>
+      </c>
+      <c r="D71">
+        <v>8.6593706928994638E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.81939789320489742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B72">
+        <v>0.3091129960875762</v>
+      </c>
+      <c r="C72">
+        <v>3.5991731318905678</v>
+      </c>
+      <c r="D72">
+        <v>7.8994026500050538E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.64992257158830857</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B73">
+        <v>0.25386327851886914</v>
+      </c>
+      <c r="C73">
+        <v>3.1242713059083624</v>
+      </c>
+      <c r="D73">
+        <v>7.1901201002966195E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.65357185613380997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B74">
+        <v>0.38077645460566589</v>
+      </c>
+      <c r="C74">
+        <v>5.0667514912058325</v>
+      </c>
+      <c r="D74">
+        <v>7.7743747334016969E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.99497081435989743</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B75">
+        <v>0.31946312050256354</v>
+      </c>
+      <c r="C75">
+        <v>4.7350500462884897</v>
+      </c>
+      <c r="D75">
+        <v>5.7476829626650482E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.45433181889393703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B76">
+        <v>0.2671201578043344</v>
+      </c>
+      <c r="C76">
+        <v>4.1838116170535438</v>
+      </c>
+      <c r="D76">
+        <v>4.6280338023829803E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.35952120204127197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B77">
+        <v>0.27806315432435091</v>
+      </c>
+      <c r="C77">
+        <v>3.860582255923481</v>
+      </c>
+      <c r="D77">
+        <v>4.2841300496050193E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.30692135707855744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B78">
+        <v>0.24320106249302972</v>
+      </c>
+      <c r="C78">
+        <v>3.4522709786133232</v>
+      </c>
+      <c r="D78">
+        <v>4.5951597865619261E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.36985428606700088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B79">
+        <v>0.25580413166446192</v>
+      </c>
+      <c r="C79">
+        <v>4.1683372234023679</v>
+      </c>
+      <c r="D79">
+        <v>6.6343409637400597E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.31932121179787953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B80">
+        <v>0.26229404778692156</v>
+      </c>
+      <c r="C80">
+        <v>4.5831816448702014</v>
+      </c>
+      <c r="D80">
+        <v>8.6734723961463145E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.52841240276326773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B81">
+        <v>0.25159288771969596</v>
+      </c>
+      <c r="C81">
+        <v>3.6949142541796967</v>
+      </c>
+      <c r="D81">
+        <v>0.11665124088196294</v>
+      </c>
+      <c r="E81">
+        <v>1.0085990081064289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B82">
+        <v>0.27066480348953514</v>
+      </c>
+      <c r="C82">
+        <v>3.6513255698180846</v>
+      </c>
+      <c r="D82">
+        <v>9.8768678110257621E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.9049010538562684</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B83">
+        <v>0.31211103548930746</v>
+      </c>
+      <c r="C83">
+        <v>3.8285570638511817</v>
+      </c>
+      <c r="D83">
+        <v>0.11433531621782393</v>
+      </c>
+      <c r="E83">
+        <v>1.1049365472104717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B84">
+        <v>0.26413494287748607</v>
+      </c>
+      <c r="C84">
+        <v>3.7346413694122589</v>
+      </c>
+      <c r="D84">
+        <v>0.12386304127910056</v>
+      </c>
+      <c r="E84">
+        <v>1.3228722254301251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B85">
+        <v>0.26848606036387801</v>
+      </c>
+      <c r="C85">
+        <v>3.6391850884167307</v>
+      </c>
+      <c r="D85">
+        <v>8.6362163925976634E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.85783217149214852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B86">
+        <v>0.28720637275447713</v>
+      </c>
+      <c r="C86">
+        <v>3.7043971513172034</v>
+      </c>
+      <c r="D86">
+        <v>5.3425010865432207E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.36231884057971014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B87">
+        <v>0.27595464103719175</v>
+      </c>
+      <c r="C87">
+        <v>3.7874621515037994</v>
+      </c>
+      <c r="D87">
+        <v>5.3765932222211564E-2</v>
+      </c>
+      <c r="E87">
+        <v>0.38837295486008128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B88">
+        <v>0.2128336211539047</v>
+      </c>
+      <c r="C88">
+        <v>2.7664810709859844</v>
+      </c>
+      <c r="D88">
+        <v>4.5650629822410867E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.33228968811882242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B89">
+        <v>0.24202730697039992</v>
+      </c>
+      <c r="C89">
+        <v>3.4668333190318834</v>
+      </c>
+      <c r="D89">
+        <v>5.4844517097366353E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.51567002969674214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B90">
+        <v>0.21633670955539175</v>
+      </c>
+      <c r="C90">
+        <v>2.7283851112783353</v>
+      </c>
+      <c r="D90">
+        <v>0.16540890922062193</v>
+      </c>
+      <c r="E90">
+        <v>1.5492362511986648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B91">
+        <v>0.21656438978933587</v>
+      </c>
+      <c r="C91">
+        <v>3.1690775706127856</v>
+      </c>
+      <c r="D91">
+        <v>3.3195683645596948E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.26678225449708903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B92">
+        <v>0.22844602573559911</v>
+      </c>
+      <c r="C92">
+        <v>3.0807740375676835</v>
+      </c>
+      <c r="D92">
+        <v>4.1267806930634275E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.34125733987096263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B93">
+        <v>0.22024160168237131</v>
+      </c>
+      <c r="C93">
+        <v>2.657523617172548</v>
+      </c>
+      <c r="D93">
+        <v>5.3957444879852129E-2</v>
+      </c>
+      <c r="E93">
+        <v>0.46098563390952724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B94">
+        <v>0.22994972465271704</v>
+      </c>
+      <c r="C94">
+        <v>3.0278970350153651</v>
+      </c>
+      <c r="D94">
+        <v>6.0809044157379616E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.57559162596411595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B95">
+        <v>0.22773007915175641</v>
+      </c>
+      <c r="C95">
+        <v>2.9667722064717283</v>
+      </c>
+      <c r="D95">
+        <v>3.8298020638546294E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.29671861342320988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B96">
+        <v>0.25748755284406261</v>
+      </c>
+      <c r="C96">
+        <v>2.9330889092575618</v>
+      </c>
+      <c r="D96">
+        <v>3.4903051805689006E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.35343600454938878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B97">
+        <v>0.24431651016708833</v>
+      </c>
+      <c r="C97">
+        <v>3.0896788799967863</v>
+      </c>
+      <c r="D97">
+        <v>4.8414782953632295E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.40419619388595468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B98">
+        <v>0.25260460008692781</v>
+      </c>
+      <c r="C98">
+        <v>3.5311004079104649</v>
+      </c>
+      <c r="D98">
+        <v>4.5682054827745983E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.33224399582565234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B99">
+        <v>0.24729703319922547</v>
+      </c>
+      <c r="C99">
+        <v>3.4127791694821648</v>
+      </c>
+      <c r="D99">
+        <v>5.2862149787672202E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.53416307580561262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B100">
+        <v>0.21289140681776111</v>
+      </c>
+      <c r="C100">
+        <v>2.8545955284176441</v>
+      </c>
+      <c r="D100">
+        <v>5.435835009547469E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.51145136387030365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B101">
+        <v>0.21890293428346555</v>
+      </c>
+      <c r="C101">
+        <v>3.2210215450701387</v>
+      </c>
+      <c r="D101">
+        <v>6.9732769971654202E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.6302843326264761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B102">
+        <v>0.22344032864833513</v>
+      </c>
+      <c r="C102">
+        <v>3.3209932321537239</v>
+      </c>
+      <c r="D102">
+        <v>2.5206259233109714E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.24012893361705789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B103">
+        <v>0.21485151274353978</v>
+      </c>
+      <c r="C103">
+        <v>2.4894340641283099</v>
+      </c>
+      <c r="D103">
+        <v>3.0050399983219553E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.30138559848460866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B104">
+        <v>0.19197597037988401</v>
+      </c>
+      <c r="C104">
+        <v>2.5322765506698111</v>
+      </c>
+      <c r="D104">
+        <v>3.1792605407591913E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.26162730613577834</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B105">
+        <v>0.20081818175871893</v>
+      </c>
+      <c r="C105">
+        <v>2.3316017549053911</v>
+      </c>
+      <c r="D105">
+        <v>2.8445378877275728E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.28223188583328229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B106">
+        <v>0.22587072082505713</v>
+      </c>
+      <c r="C106">
+        <v>2.9705901704059476</v>
+      </c>
+      <c r="D106">
+        <v>3.804375284684583E-2</v>
+      </c>
+      <c r="E106">
+        <v>0.35930136872309015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B107">
+        <v>0.19795620468530201</v>
+      </c>
+      <c r="C107">
+        <v>2.3910193722512978</v>
+      </c>
+      <c r="D107">
+        <v>2.2164261194986476E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.2111101551771267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B108">
+        <v>0.20711106681252303</v>
+      </c>
+      <c r="C108">
+        <v>2.6424667324975006</v>
+      </c>
+      <c r="D108">
+        <v>2.8877544725230252E-2</v>
+      </c>
+      <c r="E108">
+        <v>0.25329180840548216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B109">
+        <v>0.22429277495011604</v>
+      </c>
+      <c r="C109">
+        <v>2.3339715237741609</v>
+      </c>
+      <c r="D109">
+        <v>3.3664810512077439E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.22553750726811272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B110">
+        <v>0.24119203353454385</v>
+      </c>
+      <c r="C110">
+        <v>2.9689728471429118</v>
+      </c>
+      <c r="D110">
+        <v>3.4185570706205044E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.32704669818838655</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B111">
+        <v>0.27604004062130694</v>
+      </c>
+      <c r="C111">
+        <v>3.9607467478660578</v>
+      </c>
+      <c r="D111">
+        <v>4.4948482985570165E-2</v>
+      </c>
+      <c r="E111">
+        <v>0.44715792454165781</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B112">
+        <v>0.24938571624670303</v>
+      </c>
+      <c r="C112">
+        <v>4.1659966614597694</v>
+      </c>
+      <c r="D112">
+        <v>3.7489425786810041E-2</v>
+      </c>
+      <c r="E112">
+        <v>0.34859102354185834</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B113">
+        <v>0.22566677545393871</v>
+      </c>
+      <c r="C113">
+        <v>3.1754803573837065</v>
+      </c>
+      <c r="D113">
+        <v>3.099236761896661E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.26014685037665952</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B114">
+        <v>0.21137626957207045</v>
+      </c>
+      <c r="C114">
+        <v>2.5441294327162227</v>
+      </c>
+      <c r="D114">
+        <v>2.6587355901648877E-2</v>
+      </c>
+      <c r="E114">
+        <v>0.19951521420751994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B115">
+        <v>0.23669594107294406</v>
+      </c>
+      <c r="C115">
+        <v>3.2259853910944254</v>
+      </c>
+      <c r="D115">
+        <v>2.6491599936748517E-2</v>
+      </c>
+      <c r="E115">
+        <v>0.25662154823759742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B116">
+        <v>0.21643537025136647</v>
+      </c>
+      <c r="C116">
+        <v>2.8344563703996175</v>
+      </c>
+      <c r="D116">
+        <v>1.7031453724549412E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.15833928843382808</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B117">
+        <v>0.22117314153709189</v>
+      </c>
+      <c r="C117">
+        <v>3.3972657292127675</v>
+      </c>
+      <c r="D117">
+        <v>1.327669746686887E-2</v>
+      </c>
+      <c r="E117">
+        <v>0.13943923186947804</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B118">
+        <v>0.2149072254430279</v>
+      </c>
+      <c r="C118">
+        <v>2.736402815723376</v>
+      </c>
+      <c r="D118">
+        <v>1.6967889969679146E-2</v>
+      </c>
+      <c r="E118">
+        <v>0.17428653748292655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B119">
+        <v>0.22264492910070441</v>
+      </c>
+      <c r="C119">
+        <v>2.5535460013672933</v>
+      </c>
+      <c r="D119">
+        <v>1.376093487967652E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.12973500597939289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B120">
+        <v>0.24617291992902277</v>
+      </c>
+      <c r="C120">
+        <v>2.956960917042958</v>
+      </c>
+      <c r="D120">
+        <v>2.9178570506356798E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.2352794992153141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B121">
+        <v>0.23623611567208544</v>
+      </c>
+      <c r="C121">
+        <v>3.5859313597065761</v>
+      </c>
+      <c r="D121">
+        <v>2.314441424307433E-2</v>
+      </c>
+      <c r="E121">
+        <v>0.24587831667577878</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B122">
+        <v>0.30123332410316978</v>
+      </c>
+      <c r="C122">
+        <v>3.5099422069929775</v>
+      </c>
+      <c r="D122">
+        <v>1.6634501706083001E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.17556004409036902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B123">
+        <v>0.28088776175401242</v>
+      </c>
+      <c r="C123">
+        <v>3.9831635919486734</v>
+      </c>
+      <c r="D123">
+        <v>2.6948755973465549E-2</v>
+      </c>
+      <c r="E123">
+        <v>0.26593595546847781</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B124">
+        <v>0.2384929383359084</v>
+      </c>
+      <c r="C124">
+        <v>3.0539986709946318</v>
+      </c>
+      <c r="D124">
+        <v>3.2029669982204793E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.3513927932532584</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B125">
+        <v>0.24874289485482512</v>
+      </c>
+      <c r="C125">
+        <v>3.7542384978259404</v>
+      </c>
+      <c r="D125">
+        <v>2.9146003122240732E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.35264970098145487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B126">
+        <v>0.24998972331213085</v>
+      </c>
+      <c r="C126">
+        <v>3.294908230298732</v>
+      </c>
+      <c r="D126">
+        <v>2.2775158358437211E-2</v>
+      </c>
+      <c r="E126">
+        <v>0.31554829156431674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B127">
+        <v>0.24992622340989315</v>
+      </c>
+      <c r="C127">
+        <v>3.3184849184468921</v>
+      </c>
+      <c r="D127">
+        <v>1.867623573999035E-2</v>
+      </c>
+      <c r="E127">
+        <v>0.22526903132258341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B128">
+        <v>0.2252728776012318</v>
+      </c>
+      <c r="C128">
+        <v>2.9168235100759743</v>
+      </c>
+      <c r="D128">
+        <v>2.13526819329952E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.29499434133693225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B129">
+        <v>0.25098506688866301</v>
+      </c>
+      <c r="C129">
+        <v>3.809207516361067</v>
+      </c>
+      <c r="D129">
+        <v>3.1477781560713299E-2</v>
+      </c>
+      <c r="E129">
+        <v>0.38110700681611853</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B130">
+        <v>0.24103086583980304</v>
+      </c>
+      <c r="C130">
+        <v>3.3616605191944524</v>
+      </c>
+      <c r="D130">
+        <v>2.0407411665050473E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.21583717626322868</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B131">
+        <v>0.24770458789480032</v>
+      </c>
+      <c r="C131">
+        <v>2.8157909017489762</v>
+      </c>
+      <c r="D131">
+        <v>2.0676938843763419E-2</v>
+      </c>
+      <c r="E131">
+        <v>0.20343045047304548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B132">
+        <v>0.25187553377196509</v>
+      </c>
+      <c r="C132">
+        <v>3.1445371361884669</v>
+      </c>
+      <c r="D132">
+        <v>1.3903349169882636E-2</v>
+      </c>
+      <c r="E132">
+        <v>0.14967495656571422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B133">
+        <v>0.23745842904746928</v>
+      </c>
+      <c r="C133">
+        <v>2.7839077199451614</v>
+      </c>
+      <c r="D133">
+        <v>1.5103085021061575E-2</v>
+      </c>
+      <c r="E133">
+        <v>0.2012616810605751</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B134">
+        <v>0.2927259179550728</v>
+      </c>
+      <c r="C134">
+        <v>3.8824469860679209</v>
+      </c>
+      <c r="D134">
+        <v>1.7096333604377501E-2</v>
+      </c>
+      <c r="E134">
+        <v>0.17632936859066903</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B135">
+        <v>0.26805604104237302</v>
+      </c>
+      <c r="C135">
+        <v>3.9810184235066228</v>
+      </c>
+      <c r="D135">
+        <v>1.8545042565361988E-2</v>
+      </c>
+      <c r="E135">
+        <v>0.22679899268163325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B136">
+        <v>0.18018036920224756</v>
+      </c>
+      <c r="C136">
+        <v>2.9303912882835998</v>
+      </c>
+      <c r="D136">
+        <v>1.0743167554268766E-2</v>
+      </c>
+      <c r="E136">
+        <v>0.14466713134851891</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B137">
+        <v>0.16914545486273913</v>
+      </c>
+      <c r="C137">
+        <v>2.2775544125013241</v>
+      </c>
+      <c r="D137">
+        <v>4.3136537694796397E-2</v>
+      </c>
+      <c r="E137">
+        <v>0.40367149862238244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B138">
+        <v>0.16782181472487814</v>
+      </c>
+      <c r="C138">
+        <v>2.3106971874533997</v>
+      </c>
+      <c r="D138">
+        <v>1.6956914075443967E-2</v>
+      </c>
+      <c r="E138">
+        <v>0.18141188706027855</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B139">
+        <v>0.15155218984454177</v>
+      </c>
+      <c r="C139">
+        <v>2.2813778188632927</v>
+      </c>
+      <c r="D139">
+        <v>1.425898881616367E-2</v>
+      </c>
+      <c r="E139">
+        <v>0.14818958546465058</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B140">
+        <v>0.17235299774587093</v>
+      </c>
+      <c r="C140">
+        <v>2.109537363976719</v>
+      </c>
+      <c r="D140">
+        <v>2.2487475604309737E-2</v>
+      </c>
+      <c r="E140">
+        <v>0.26449405703221007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B141">
+        <v>0.16200468048573399</v>
+      </c>
+      <c r="C141">
+        <v>2.3141161659322744</v>
+      </c>
+      <c r="D141">
+        <v>2.6184145751129286E-2</v>
+      </c>
+      <c r="E141">
+        <v>0.22511817418998187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B142">
+        <v>0.18070250726983045</v>
+      </c>
+      <c r="C142">
+        <v>2.1132721479861143</v>
+      </c>
+      <c r="D142">
+        <v>2.5751117352942991E-2</v>
+      </c>
+      <c r="E142">
+        <v>0.27433741665599315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B143">
+        <v>0.19463341238655563</v>
+      </c>
+      <c r="C143">
+        <v>2.2595212883793434</v>
+      </c>
+      <c r="D143">
+        <v>0.18191134050292068</v>
+      </c>
+      <c r="E143">
+        <v>1.3331632022937667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B144">
+        <v>0.21462991912892634</v>
+      </c>
+      <c r="C144">
+        <v>2.4686680365154952</v>
+      </c>
+      <c r="D144">
+        <v>2.9878001829004699E-2</v>
+      </c>
+      <c r="E144">
+        <v>0.25697681615717494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B145">
+        <v>0.18055071430152103</v>
+      </c>
+      <c r="C145">
+        <v>2.524413071551586</v>
+      </c>
+      <c r="D145">
+        <v>3.5737879600494661E-2</v>
+      </c>
+      <c r="E145">
+        <v>0.29963314833256371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B146">
+        <v>0.22316085008083089</v>
+      </c>
+      <c r="C146">
+        <v>2.370247285055719</v>
+      </c>
+      <c r="D146">
+        <v>3.0792675065889032E-2</v>
+      </c>
+      <c r="E146">
+        <v>0.18600782615322162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B147">
+        <v>0.18801991937569393</v>
+      </c>
+      <c r="C147">
+        <v>2.8430655607998299</v>
+      </c>
+      <c r="D147">
+        <v>2.2478150958467627E-2</v>
+      </c>
+      <c r="E147">
+        <v>0.23940101148512091</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B148">
+        <v>0.150125175402438</v>
+      </c>
+      <c r="C148">
+        <v>2.0808869546887929</v>
+      </c>
+      <c r="D148">
+        <v>2.4182705459679467E-2</v>
+      </c>
+      <c r="E148">
+        <v>0.20780781305006882</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B149">
+        <v>0.15268152945603539</v>
+      </c>
+      <c r="C149">
+        <v>1.5995082404119776</v>
+      </c>
+      <c r="D149">
+        <v>4.6345321593572492E-2</v>
+      </c>
+      <c r="E149">
+        <v>0.37622160687286021</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B150">
+        <v>0.14913693634615741</v>
+      </c>
+      <c r="C150">
+        <v>1.8341589005062595</v>
+      </c>
+      <c r="D150">
+        <v>1.8313325902747132E-2</v>
+      </c>
+      <c r="E150">
+        <v>0.139223965047066</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B151">
+        <v>0.13498751294053285</v>
+      </c>
+      <c r="C151">
+        <v>1.4286038355327542</v>
+      </c>
+      <c r="D151">
+        <v>5.3615759405328624E-2</v>
+      </c>
+      <c r="E151">
+        <v>0.46326545519365947</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B152">
+        <v>0.14824873320975246</v>
+      </c>
+      <c r="C152">
+        <v>1.817423347571705</v>
+      </c>
+      <c r="D152">
+        <v>7.4135915094181729E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.63233448080994348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B153">
+        <v>0.1436394524595197</v>
+      </c>
+      <c r="C153">
+        <v>1.8791452814248162</v>
+      </c>
+      <c r="D153">
+        <v>2.5025059848883785E-2</v>
+      </c>
+      <c r="E153">
+        <v>0.2220421303395366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B154">
+        <v>0.14814718965283502</v>
+      </c>
+      <c r="C154">
+        <v>1.8336282635350045</v>
+      </c>
+      <c r="D154">
+        <v>7.1698467704928576E-2</v>
+      </c>
+      <c r="E154">
+        <v>0.61806387088190629</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B155">
+        <v>0.16269086250880807</v>
+      </c>
+      <c r="C155">
+        <v>1.9316580377180628</v>
+      </c>
+      <c r="D155">
+        <v>3.996235249946696E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.3854754656758827</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B156">
+        <v>0.15810984907555933</v>
+      </c>
+      <c r="C156">
+        <v>2.0124056334439873</v>
+      </c>
+      <c r="D156">
+        <v>3.6439467558191413E-2</v>
+      </c>
+      <c r="E156">
+        <v>0.38050295628642505</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B157">
+        <v>0.16591430701030407</v>
+      </c>
+      <c r="C157">
+        <v>2.3065474279191087</v>
+      </c>
+      <c r="D157">
+        <v>2.8266362162084665E-2</v>
+      </c>
+      <c r="E157">
+        <v>0.26199713514999007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B158">
+        <v>0.19504093019169896</v>
+      </c>
+      <c r="C158">
+        <v>2.3804414575229993</v>
+      </c>
+      <c r="D158">
+        <v>2.6058054921443821E-2</v>
+      </c>
+      <c r="E158">
+        <v>0.2428814243882737</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B159">
+        <v>0.21141830457934069</v>
+      </c>
+      <c r="C159">
+        <v>2.8543148990311025</v>
+      </c>
+      <c r="D159">
+        <v>7.8586852231011417E-2</v>
+      </c>
+      <c r="E159">
+        <v>0.70313690591539968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B160">
+        <v>0.13593784922497745</v>
+      </c>
+      <c r="C160">
+        <v>2.0716612617856645</v>
+      </c>
+      <c r="D160">
+        <v>0.19771035910327669</v>
+      </c>
+      <c r="E160">
+        <v>1.9163600062159252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B161">
+        <v>0.16042906691411024</v>
+      </c>
+      <c r="C161">
+        <v>2.4184913560839965</v>
+      </c>
+      <c r="D161">
+        <v>3.543221518501144E-2</v>
+      </c>
+      <c r="E161">
+        <v>0.3529948003779268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B162">
+        <v>0.13679561548192851</v>
+      </c>
+      <c r="C162">
+        <v>1.9798277061608167</v>
+      </c>
+      <c r="D162">
+        <v>3.6037205052784509E-2</v>
+      </c>
+      <c r="E162">
+        <v>0.3620675192264538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B163">
+        <v>0.15080295086325662</v>
+      </c>
+      <c r="C163">
+        <v>2.1682122518085269</v>
+      </c>
+      <c r="D163">
+        <v>0.19556478862832546</v>
+      </c>
+      <c r="E163">
+        <v>1.8792797238826369</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B164">
+        <v>0.15790276060640537</v>
+      </c>
+      <c r="C164">
+        <v>2.1270736468835172</v>
+      </c>
+      <c r="D164">
+        <v>5.9162181771772154E-2</v>
+      </c>
+      <c r="E164">
+        <v>0.60057086243339208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B165">
+        <v>0.14314673582839668</v>
+      </c>
+      <c r="C165">
+        <v>2.186690539616841</v>
+      </c>
+      <c r="D165">
+        <v>0.10657272854458338</v>
+      </c>
+      <c r="E165">
+        <v>1.0680132103673214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B166">
+        <v>0.15602330854803215</v>
+      </c>
+      <c r="C166">
+        <v>2.179426063561849</v>
+      </c>
+      <c r="D166">
+        <v>0.27722252620323184</v>
+      </c>
+      <c r="E166">
+        <v>2.5928925950407029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B167">
+        <v>0.15141515723964422</v>
+      </c>
+      <c r="C167">
+        <v>1.9439564244104157</v>
+      </c>
+      <c r="D167">
+        <v>6.31324273922656E-2</v>
+      </c>
+      <c r="E167">
+        <v>0.61225618275555338</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B168">
+        <v>0.16060691017238735</v>
+      </c>
+      <c r="C168">
+        <v>2.0189607603587181</v>
+      </c>
+      <c r="D168">
+        <v>0.23751736996087788</v>
+      </c>
+      <c r="E168">
+        <v>2.5157579740718883</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B169">
+        <v>0.15570756434288813</v>
+      </c>
+      <c r="C169">
+        <v>2.0315972373401654</v>
+      </c>
+      <c r="D169">
+        <v>0.22032487685722763</v>
+      </c>
+      <c r="E169">
+        <v>2.3193444419267673</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918EDB5-41D8-42AB-953E-464FB9887AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9724C-0423-418D-AD7C-782E98D06E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D555C4E3-048C-42C7-9EA1-F19C106AB869}"/>
   </bookViews>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>% exportações de Sergipe no Brasil</t>
-  </si>
-  <si>
-    <t>% exportações de Sergipe no Nordeste</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>% importações de Sergipe no Brasil</t>
+    <t>Sergipe/Brasil (exportações)</t>
   </si>
   <si>
-    <t>% importações de Sergipe no Nordeste</t>
+    <t>Sergipe/Nordeste (exportações)</t>
+  </si>
+  <si>
+    <t>Sergipe/Brasil (importações)</t>
+  </si>
+  <si>
+    <t>Sergipe/Nordeste (importações)</t>
   </si>
 </sst>
 </file>
@@ -394,26 +394,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B2C39-FF07-427E-A757-57781BBE4696}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>

--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3887,13 +3887,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.09927260348477319</v>
+        <v>0.09923299865843213</v>
       </c>
       <c r="C182" t="n">
         <v>1.449528736045908</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1926825034715334</v>
+        <v>0.1926809108567178</v>
       </c>
       <c r="E182" t="n">
         <v>1.793596556762409</v>
@@ -3906,13 +3906,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.2011703030171195</v>
+        <v>0.2011265522715904</v>
       </c>
       <c r="C183" t="n">
         <v>2.463505594033031</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1838868847700792</v>
+        <v>0.1838861222949691</v>
       </c>
       <c r="E183" t="n">
         <v>2.137832029687077</v>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1605117306042871</v>
+        <v>0.1605012261993332</v>
       </c>
       <c r="C184" t="n">
         <v>2.214778051653122</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1788718127357647</v>
+        <v>0.1788726326018004</v>
       </c>
       <c r="E184" t="n">
         <v>1.735913412950337</v>
@@ -3944,13 +3944,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.01151386776980232</v>
+        <v>0.01151371486623772</v>
       </c>
       <c r="C185" t="n">
         <v>0.1589664795250441</v>
       </c>
       <c r="D185" t="n">
-        <v>0.07910914907009027</v>
+        <v>0.07910403365908963</v>
       </c>
       <c r="E185" t="n">
         <v>0.8022106915668202</v>
@@ -3963,13 +3963,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.1396564426950929</v>
+        <v>0.13972182470773</v>
       </c>
       <c r="C186" t="n">
         <v>1.913059686225661</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03450499159288493</v>
+        <v>0.03449597869911233</v>
       </c>
       <c r="E186" t="n">
         <v>0.3891516607859837</v>
@@ -3982,16 +3982,35 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.1354120069524359</v>
+        <v>0.136213434825023</v>
       </c>
       <c r="C187" t="n">
         <v>1.874003453591537</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05746704947475009</v>
+        <v>0.05744813796550862</v>
       </c>
       <c r="E187" t="n">
         <v>0.6663590395268661</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0643219011943873</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.040526337748621</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.111167728563164</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.189168631128218</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1257658734542176</v>
+        <v>0.1249288768198036</v>
       </c>
       <c r="C16" t="n">
-        <v>1.729094074350103</v>
+        <v>1.701461777918401</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1181883935007629</v>
+        <v>0.1092891394503056</v>
       </c>
       <c r="E16" t="n">
-        <v>1.194130688294536</v>
+        <v>1.117446504851607</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.2.xlsx
+++ b/Data/g12.2.xlsx
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1249288768198036</v>
+        <v>0.12249740311861</v>
       </c>
       <c r="C16" t="n">
-        <v>1.701461777918401</v>
+        <v>1.68190507979382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1092891394503056</v>
+        <v>0.1365196219199632</v>
       </c>
       <c r="E16" t="n">
-        <v>1.117446504851607</v>
+        <v>1.403362708735537</v>
       </c>
     </row>
   </sheetData>
